--- a/Income/RMD_inc.xlsx
+++ b/Income/RMD_inc.xlsx
@@ -1341,10 +1341,8 @@
           <t>Non-operating Interest Expenses</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B10" s="0" t="n">
+        <v>6382000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>620000.0</v>
@@ -2155,10 +2153,8 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>0.5738</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.5718</v>
@@ -2284,10 +2280,8 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>0.2864</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.2844</v>
@@ -2413,10 +2407,8 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>0.2771</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.2685</v>
@@ -2542,10 +2534,8 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>0.1479</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.226</v>
@@ -2671,10 +2661,8 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>0.2372</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0.2503</v>
@@ -2800,10 +2788,8 @@
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B21" s="0" t="n">
+        <v>1085305000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1077962000.0</v>
@@ -3691,10 +3677,8 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0.3487</v>
@@ -3820,10 +3804,8 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>0.2719</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0.2859</v>
